--- a/Assets/excel_config/dice_card_config.xlsx
+++ b/Assets/excel_config/dice_card_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\塔牌\tower_card_demo\Assets\excel_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98210699-71F4-499E-82B4-A17156E250FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70CF472-4201-47F9-98E1-FBD3CD9BC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,9 @@
   <si>
     <t>卡槽3属性影响方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Image/Cards/card_icon/icon_ghost_shop.png</t>
   </si>
 </sst>
 </file>
@@ -546,14 +549,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="4" max="4" width="73.625" customWidth="1"/>
+    <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -693,7 +697,9 @@
       <c r="D4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
